--- a/data/balance_sheet/3digits/total/802_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/802_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>802-Security systems service activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>802-Security systems service activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,18 +915,23 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>56051.24744000001</v>
+        <v>56051.24744</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>69825.80983999999</v>
+        <v>69825.80984</v>
       </c>
       <c r="E5" s="32" t="n">
         <v>165044.8562</v>
@@ -1490,32 +940,37 @@
         <v>216937.92376</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>341823.64903</v>
+        <v>341826.98683</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>630885.17824</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1000551.72094</v>
+        <v>1003232.00553</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>946242.81967</v>
+        <v>970079.4924799999</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1458542.85734</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1344912.91141</v>
+        <v>1384343.45502</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1627142.67115</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1681528.13572</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>2316654.44</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>13843.12655</v>
@@ -1527,7 +982,7 @@
         <v>26920.91907</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>40357.77151</v>
+        <v>40357.77151000001</v>
       </c>
       <c r="G6" s="23" t="n">
         <v>48933.97789</v>
@@ -1536,26 +991,31 @@
         <v>176554.91656</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>320388.85585</v>
+        <v>321624.14271</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>196984.01532</v>
+        <v>200264.34973</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>229543.71522</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>276712.04998</v>
+        <v>296471.33757</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>337881.9624</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>343321.51594</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>530907.699</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>2232.59341</v>
@@ -1567,7 +1027,7 @@
         <v>3496.95818</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>9340.05579</v>
+        <v>9340.055789999999</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>12272.89883</v>
@@ -1576,26 +1036,31 @@
         <v>15397.08673</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>32554.82563</v>
+        <v>32614.03363</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>29485.67653</v>
+        <v>30536.68213</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>48052.86625</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>46621.10388</v>
+        <v>46788.24005</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>47689.86208</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>48461.4885</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>48186.534</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>2381.52554</v>
@@ -1613,29 +1078,34 @@
         <v>14621.75754</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>85167.38153999999</v>
+        <v>85167.38154</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>197085.19097</v>
+        <v>197261.59918</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>34076.79295</v>
+        <v>35223.9103</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>48851.27789</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>55410.92591999999</v>
+        <v>55810.92591999999</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>54463.51904</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>55055.81964000001</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>67064.93399999999</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>10549.48775</v>
@@ -1653,29 +1123,34 @@
         <v>22162.45545</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>60146.28187000001</v>
+        <v>60146.28187</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>75775.16812999999</v>
+        <v>76663.70078</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>124741.86502</v>
+        <v>125796.93574</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>134317.43284</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>175842.49819</v>
+        <v>195034.64961</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>241638.12492</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>246127.03464</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>436718.229</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1587.97927</v>
@@ -1708,14 +1183,19 @@
         <v>15031.93912</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>21742.00763</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>22224.31036</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>39322.867</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>267.49912</v>
@@ -1724,7 +1204,7 @@
         <v>4152.50759</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>6893.155170000001</v>
+        <v>6893.15517</v>
       </c>
       <c r="F11" s="21" t="n">
         <v>15975.79473</v>
@@ -1736,10 +1216,10 @@
         <v>23361.49097</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>26578.58684</v>
+        <v>26689.72484</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>17701.24673</v>
+        <v>17728.38747</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>16053.96514</v>
@@ -1748,14 +1228,19 @@
         <v>13869.46111</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>15832.46399</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>15901.48352</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>18260.869</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>448.87827</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>2524.28253</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>15383.039</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>108.90541</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>309.6886</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>1215.24822</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>364.004</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1896,7 +1396,7 @@
         <v>119.81481</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>8.309700000000001</v>
+        <v>8.309699999999999</v>
       </c>
       <c r="J15" s="21" t="n">
         <v>0.30772</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0.12625</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>139.18967</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1200.00265</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>15018.909</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>17672.8661</v>
@@ -2004,10 +1519,10 @@
         <v>24670.38138</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>53558.34722</v>
+        <v>53558.34721999999</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>82057.97418999999</v>
+        <v>82057.97419000001</v>
       </c>
       <c r="G18" s="23" t="n">
         <v>135557.50911</v>
@@ -2016,26 +1531,31 @@
         <v>241495.16726</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>376859.79947</v>
+        <v>377920.49321</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>352218.93527</v>
+        <v>353402.66302</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>722857.53519</v>
+        <v>722857.5351900001</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>561656.0263199999</v>
+        <v>573711.83543</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>620340.16564</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>636722.15148</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>943545.7879999999</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>15673.81784</v>
@@ -2047,7 +1567,7 @@
         <v>48664.52587</v>
       </c>
       <c r="F19" s="21" t="n">
-        <v>73832.52008999999</v>
+        <v>73832.52009000001</v>
       </c>
       <c r="G19" s="22" t="n">
         <v>117998.89461</v>
@@ -2056,26 +1576,31 @@
         <v>187628.91729</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>303444.39518</v>
+        <v>304472.40092</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>297584.65388</v>
+        <v>298744.91763</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>489357.9932</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>488067.69804</v>
+        <v>500028.24421</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>536540.27105</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>551235.27999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>814196.655</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>959.95712</v>
@@ -2096,26 +1621,31 @@
         <v>15048.13531</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>33629.91553</v>
+        <v>33641.10353</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>43753.39604</v>
+        <v>43776.59604</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>221359.65076</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>61987.55376</v>
+        <v>62082.64844999999</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>69512.79028</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>71199.76718000001</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>112080.3</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0.70277</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>856.15649</v>
@@ -2216,26 +1756,31 @@
         <v>1143.89325</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>996.92966</v>
+        <v>1018.42966</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>6421.865940000001</v>
+        <v>6422.12994</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>4778.6942</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>3077.52236</v>
+        <v>3077.690610000001</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>4568.632419999999</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>4568.632420000001</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>5626.339</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>32.94215</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>3888.04889</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>5027.151</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1197.456</v>
@@ -2299,29 +1849,34 @@
         <v>31655.07887</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>35158.62399</v>
+        <v>35161.96214</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>39763.48549</v>
+        <v>39763.48548999999</v>
       </c>
       <c r="L25" s="22" t="n">
         <v>43804.64593</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>53108.57052</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>53108.57052000001</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>79555.04399999999</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>1047.4635</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>2188.605880000001</v>
+        <v>2188.60588</v>
       </c>
       <c r="E26" s="22" t="n">
         <v>3112.97119</v>
@@ -2339,7 +1894,7 @@
         <v>29476.90576</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>33059.68383</v>
+        <v>33063.02198</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>37096.46481</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>47277.44475</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>72933.186</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>2598.69199</v>
@@ -2370,32 +1930,37 @@
         <v>36471.79588</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>45988.42776</v>
+        <v>45991.76556</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>58592.61861</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>61990.56804999999</v>
+        <v>62010.37646</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>86815.90475999999</v>
+        <v>88591.2939</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>104135.15005</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>61014.21863</v>
+        <v>65182.47216</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>130582.85726</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>137167.86906</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>103599.255</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>1489.57097</v>
@@ -2410,7 +1975,7 @@
         <v>9329.53757</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>13301.4061</v>
+        <v>13304.7439</v>
       </c>
       <c r="H28" s="21" t="n">
         <v>13631.69481</v>
@@ -2419,23 +1984,28 @@
         <v>25815.23337</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>15242.17326</v>
+        <v>17006.67594</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>32355.19656</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>21417.67834</v>
+        <v>22552.57168</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>32581.2083</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>33898.22671</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>58512.996</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>18.21925</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>59521.95</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>38.43044</v>
@@ -2533,10 +2113,10 @@
         <v>533.6550100000001</v>
       </c>
       <c r="H31" s="21" t="n">
-        <v>639.49617</v>
+        <v>639.4961700000001</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>704.59245</v>
+        <v>711.5924500000001</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>293.75057</v>
@@ -2548,14 +2128,19 @@
         <v>322.33294</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>397.3790799999999</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>397.37908</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>2442.733</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1052.47133</v>
@@ -2576,26 +2161,31 @@
         <v>44320.51478</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>35456.02938</v>
+        <v>35468.83779</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>71066.34846000001</v>
+        <v>71077.23492</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>69838.33504999999</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>39247.03423</v>
+        <v>42280.39442</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>38072.90904999999</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>43340.90244</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>42615.203</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>9.410830000000001</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>28.323</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>17364.84373</v>
@@ -2736,26 +2341,31 @@
         <v>114178.31448</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>171135.78665</v>
+        <v>171480.55488</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>224376.83873</v>
+        <v>228814.90665</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>298033.7906599999</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>347078.25401</v>
+        <v>349708.18439</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>422012.62656</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>443643.04664</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>585890.7389999999</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>1818.24561</v>
@@ -2785,17 +2395,22 @@
         <v>13712.09831</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>17883.71183</v>
+        <v>17944.33518</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>26520.61086</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>26672.59544</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>27863.401</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>7.169770000000001</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>2364.54013</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>2614.17</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>36.51167</v>
@@ -2868,14 +2488,19 @@
         <v>3302.3437</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>3628.67745</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>6883.38009</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>4557.083</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>12666.11011</v>
@@ -2890,32 +2515,37 @@
         <v>26044.28881</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>63784.73261000001</v>
+        <v>63784.73261</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>72172.10618</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>111309.69682</v>
+        <v>111634.12201</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>143914.75291</v>
+        <v>146452.21993</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>202445.50498</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>242287.79864</v>
+        <v>243805.44253</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>285301.99748</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>296334.75745</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>384114.493</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>252.23692</v>
@@ -2939,23 +2569,28 @@
         <v>4221.2706</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>6293.001730000001</v>
+        <v>6293.24328</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>7543.10886</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>8508.700640000001</v>
+        <v>8515.169260000001</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>6218.466700000001</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>6235.666699999999</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>11713.998</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>2584.56965</v>
@@ -3004,7 +2644,7 @@
         <v>3831.15718</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>5684.500800000001</v>
+        <v>5684.5008</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>11790.04874</v>
@@ -3016,26 +2656,31 @@
         <v>23282.05692</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>45697.80578</v>
+        <v>45718.14881999999</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>58419.05787999999</v>
+        <v>60319.41723</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>66520.04819</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>67426.43435</v>
+        <v>68471.62886999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>97978.33394</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>105152.10683</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>155027.594</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>2175.77103</v>
@@ -3059,7 +2704,7 @@
         <v>33245.81899</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>38036.45973999999</v>
+        <v>50032.2813</v>
       </c>
       <c r="K44" s="23" t="n">
         <v>45654.90832</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>43139.56228</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>31373.293</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>2175.77103</v>
@@ -3099,7 +2749,7 @@
         <v>33245.81899</v>
       </c>
       <c r="J45" s="21" t="n">
-        <v>37924.71840999999</v>
+        <v>49920.53997</v>
       </c>
       <c r="K45" s="22" t="n">
         <v>44850.80639</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>40750.1046</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>28034.21</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>2389.45768</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>3339.083</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>227.57342</v>
@@ -3216,26 +2881,31 @@
         <v>2078.41477</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>3789.13371</v>
+        <v>3796.09505</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>6545.65971</v>
+        <v>6548.825339999999</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>7943.97281</v>
+        <v>7943.972809999999</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>7058.982690000001</v>
+        <v>7059.56309</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>15720.31078</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>16911.99686</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>9124.775</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>185.55046</v>
@@ -3259,23 +2929,28 @@
         <v>3121.94458</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>5890.96685</v>
+        <v>5894.13248</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>7721.55956</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>6742.157109999999</v>
+        <v>6742.73751</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>15493.71185</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>16620.06152</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>8688.360000000001</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>42.02296</v>
@@ -3296,7 +2971,7 @@
         <v>547.67274</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>667.18913</v>
+        <v>674.1504699999999</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>654.6928600000001</v>
@@ -3305,17 +2980,22 @@
         <v>222.41325</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>316.82558</v>
+        <v>316.8255799999999</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>226.59893</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>291.9353400000001</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>436.415</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1719.49635</v>
@@ -3324,7 +3004,7 @@
         <v>2434.93017</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>4422.119189999999</v>
+        <v>4422.11919</v>
       </c>
       <c r="F51" s="45" t="n">
         <v>11524.1432</v>
@@ -3336,26 +3016,31 @@
         <v>21351.96443</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>31826.88069</v>
+        <v>31839.6467</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>37641.28611</v>
+        <v>38801.45251</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>49268.67864</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>49162.52222</v>
+        <v>49979.20481999999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>54940.9037</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>58097.71093</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>96829.852</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>777.9259199999999</v>
@@ -3376,26 +3061,31 @@
         <v>10395.79388</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>17591.52692</v>
+        <v>17594.22554</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>21690.81917</v>
+        <v>21822.33687</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>30935.87403</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>29196.93208</v>
+        <v>29939.29957</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>32475.96344</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>34791.42411</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>56135.665</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -3419,23 +3109,28 @@
         <v>138.18503</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>1286.06172</v>
+        <v>1677.84135</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>190.2319</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>940.7567700000001</v>
+        <v>941.2794399999999</v>
       </c>
       <c r="M53" s="22" t="n">
         <v>1200.27786</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>1546.634</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>3.79735</v>
@@ -3459,7 +3154,7 @@
         <v>30.86304</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>46.67606</v>
+        <v>59.78846</v>
       </c>
       <c r="K54" s="22" t="n">
         <v>123.04865</v>
@@ -3468,14 +3163,19 @@
         <v>532.4876700000001</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>441.40505</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>583.64067</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>631.103</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>139.95511</v>
@@ -3496,26 +3196,31 @@
         <v>1141.01837</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>1250.2234</v>
+        <v>1260.29079</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>1790.19749</v>
+        <v>1834.16425</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>3352.97341</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>3589.07408</v>
+        <v>3595.97499</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>3175.89472</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>3237.970859999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3047.343</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>425.81272</v>
@@ -3533,29 +3238,34 @@
         <v>7687.57333</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>8481.625850000002</v>
+        <v>8481.62585</v>
       </c>
       <c r="I56" s="22" t="n">
         <v>11581.85346</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>11662.86071</v>
+        <v>11663.44926</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>13214.10838</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>13530.64976</v>
+        <v>13597.54129</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>15706.74519</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>16343.77999</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>33156.833</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>371.90023</v>
@@ -3579,7 +3289,7 @@
         <v>982.3462500000001</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>504.27537</v>
+        <v>1015.09202</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>788.13023</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>1467.53564</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>1818.782</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.10502</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>250.79043</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>250.437</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3659,10 +3379,10 @@
         <v>168.32652</v>
       </c>
       <c r="J59" s="21" t="n">
-        <v>559.0187799999999</v>
+        <v>627.40349</v>
       </c>
       <c r="K59" s="22" t="n">
-        <v>550.7118500000001</v>
+        <v>550.71185</v>
       </c>
       <c r="L59" s="22" t="n">
         <v>209.40566</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>222.29137</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>243.055</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>32914.70157</v>
@@ -3735,26 +3465,31 @@
         <v>591509.8311000001</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>655284.3022900001</v>
+        <v>655494.89251</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>685554.5602999998</v>
+        <v>686121.1513299999</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>780218.00509</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>807450.0550999999</v>
+        <v>808605.55751</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>858108.3259999999</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>861011.10609</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1087637.655</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>486.13203</v>
@@ -3778,7 +3513,7 @@
         <v>1439.02535</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>2990.16039</v>
+        <v>3025.372550000001</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>2445.60158</v>
@@ -3787,14 +3522,19 @@
         <v>3566.21176</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>7776.97404</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>7783.63944</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>3386.036</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3867,14 +3612,19 @@
         <v>1188.67557</v>
       </c>
       <c r="M64" s="22" t="n">
-        <v>5058.1498</v>
-      </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+        <v>5058.149800000001</v>
+      </c>
+      <c r="N64" s="22" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>151.42259</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>486.13203</v>
@@ -3978,7 +3738,7 @@
         <v>529.01489</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>1611.86567</v>
+        <v>1647.07783</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>1778.53621</v>
@@ -3987,14 +3747,19 @@
         <v>2376.43789</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2870.24683</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2876.91223</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>3383.017</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>0</v>
@@ -4064,17 +3834,22 @@
         <v>5380.02724</v>
       </c>
       <c r="L69" s="36" t="n">
-        <v>5673.30677</v>
+        <v>5673.30679</v>
       </c>
       <c r="M69" s="36" t="n">
         <v>2599.50231</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>3974.871</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4104,17 +3879,22 @@
         <v>4813.93698</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>4467.867389999999</v>
+        <v>4467.86741</v>
       </c>
       <c r="M70" s="22" t="n">
         <v>2054.10524</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>3316.228</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>4.025</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>545.39707</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>654.6180000000001</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>1202.94</v>
@@ -4387,14 +4197,19 @@
         <v>161.37466</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>195.90566</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>196.90566</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>107298.318</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>1202.94</v>
@@ -4507,14 +4332,19 @@
         <v>252.97466</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>287.30566</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>288.30566</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>107155.251</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>97.5</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>7.1</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>143.067</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>25789.65211</v>
@@ -4815,26 +4680,31 @@
         <v>150579.55027</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>207535.55072</v>
+        <v>207739.28718</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>211741.36074</v>
+        <v>211923.49822</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>284125.65506</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>334084.87778</v>
+        <v>334910.54883</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>385314.73287</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>388017.9657599999</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>491040.553</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1151.90622</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>14942.74806</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>32681.128</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>1.27119</v>
@@ -4909,15 +4784,20 @@
       <c r="M90" s="22" t="n">
         <v>22.86698</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>61.003</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
-        <v>985.25945</v>
+        <v>985.2594499999999</v>
       </c>
       <c r="D91" s="22" t="n">
         <v>1065.59677</v>
@@ -4932,29 +4812,34 @@
         <v>19126.30778</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>28216.03058999999</v>
+        <v>28216.03059</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>50188.13577</v>
+        <v>50188.13576999999</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>41936.61448999999</v>
+        <v>41936.61449</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>78746.32362</v>
+        <v>78746.32362000001</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>109183.58728</v>
+        <v>109368.58728</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>119702.3888</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>120109.89728</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>135876.363</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1547.61377</v>
@@ -4975,26 +4860,31 @@
         <v>3708.82498</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>3036.18648</v>
+        <v>3150.44148</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>4873.697349999999</v>
+        <v>4878.697349999999</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>5420.335160000001</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>4676.12895</v>
+        <v>4676.128949999999</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>17230.68479</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>17244.2229</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>32554.025</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>4771.38125</v>
@@ -5015,26 +4905,31 @@
         <v>31866.22626</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>43375.19412</v>
+        <v>43492.43242</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>51389.77672000001</v>
+        <v>51932.68124</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>68545.06877</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>75410.79273</v>
+        <v>75901.31187999999</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>90947.34558999998</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>92783.64595000001</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>133629.522</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>29933.03013</v>
@@ -5055,26 +4950,31 @@
         <v>161682.7467</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>203791.05548</v>
+        <v>203831.72326</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>245021.90794</v>
+        <v>245217.63028</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>295493.45683</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>333169.1239600001</v>
+        <v>333381.68021</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>393288.3853099999</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>394337.06369</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>460167.973</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>34.57804</v>
@@ -5098,7 +4998,7 @@
         <v>149.93711</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>74.45458000000001</v>
+        <v>74.45457999999999</v>
       </c>
       <c r="K95" s="22" t="n">
         <v>95.77349000000001</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>190.59832</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>439.292</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>14376.48678</v>
@@ -5135,26 +5040,31 @@
         <v>89794.73031999999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>120408.40884</v>
+        <v>120476.83346</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>151166.59732</v>
+        <v>151728.0867</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>189688.92872</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>220427.49561</v>
+        <v>220489.89996</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>265268.49878</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>265876.03495</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>332151.301</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>1722.46728</v>
@@ -5181,20 +5091,25 @@
         <v>3720.77595</v>
       </c>
       <c r="K97" s="22" t="n">
-        <v>6757.740039999999</v>
+        <v>6757.740040000001</v>
       </c>
       <c r="L97" s="22" t="n">
         <v>14770.32402</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>7704.279810000001</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>7709.023539999999</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>13720.458</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>18.63156</v>
@@ -5221,7 +5136,7 @@
         <v>2531.02946</v>
       </c>
       <c r="K98" s="22" t="n">
-        <v>4996.98536</v>
+        <v>4996.985360000001</v>
       </c>
       <c r="L98" s="22" t="n">
         <v>1922.01798</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>6553.93399</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>14062.09</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>4760.37792</v>
@@ -5249,32 +5169,37 @@
         <v>378856.96683</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>382706.0244499999</v>
+        <v>382706.02445</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>387724.2029</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>390280.75108</v>
+        <v>390287.45229</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>396597.05042</v>
+        <v>396599.2567199999</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>406559.23855</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>415893.7462000001</v>
+        <v>415948.29954</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>420023.24862</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>420158.1535000001</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>426942.374</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>2654.82832</v>
@@ -5307,14 +5232,19 @@
         <v>28280.54898</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>33946.87113</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>33999.72339</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>56658.406</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>368891.02423</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>368991.025</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>22.90682</v>
@@ -5375,26 +5310,31 @@
         <v>238.96843</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>289.88063</v>
+        <v>291.84344</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>8944.00423</v>
+        <v>8944.004229999999</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>22162.27588</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>28808.61298</v>
+        <v>28822.87566</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>28805.60562</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>28825.84755</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>28846.939</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5427,23 +5367,28 @@
         <v>3871.04731</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>7143.6366</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>7143.636600000001</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>3319.956</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>4334.59604</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>4839.69336</v>
+        <v>4839.693359999999</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>6192.026879999999</v>
+        <v>6192.026880000001</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>7442.10275</v>
@@ -5455,26 +5400,31 @@
         <v>11166.17041</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>13870.11467</v>
+        <v>13877.19167</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>15879.28666</v>
+        <v>15883.69919</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>18087.30825</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>23375.7614</v>
+        <v>23419.51736</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>29850.87673</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>29952.52152</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>34707.626</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>2062.54468</v>
@@ -5501,20 +5451,25 @@
         <v>3346.35827</v>
       </c>
       <c r="K105" s="22" t="n">
-        <v>3701.342020000001</v>
+        <v>3701.34202</v>
       </c>
       <c r="L105" s="22" t="n">
         <v>3691.27947</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>3994.89813</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>3995.53216</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>8296.589</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>4314.497939999999</v>
@@ -5526,7 +5481,7 @@
         <v>5636.12187</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>7380.091069999999</v>
+        <v>7380.09107</v>
       </c>
       <c r="G106" s="22" t="n">
         <v>10135.1897</v>
@@ -5535,26 +5490,31 @@
         <v>14018.41402</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>17825.93045</v>
+        <v>17828.26905</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>23236.33775</v>
+        <v>23238.54398</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>31319.91145</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>41024.53117</v>
+        <v>41027.99647</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>52621.16382</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>52661.63195</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>73878.167</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>11.5</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>230</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>675.59951</v>
@@ -5855,26 +5850,31 @@
         <v>4058.57393</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>5221.078350000001</v>
+        <v>5221.2309</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>8353.77053</v>
+        <v>8364.69233</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>16123.21566</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>14415.73485</v>
+        <v>14691.01285</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>23315.78353</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>23372.76045</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>23188.185</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>675.59951</v>
@@ -5895,26 +5895,31 @@
         <v>4058.57393</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>5221.078350000001</v>
+        <v>5221.2309</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>7265.77053</v>
+        <v>7276.692329999999</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>15035.21566</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>13327.73485</v>
+        <v>13603.01285</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>22226.69706</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>22283.67398</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>23188.185</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>1089.08647</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5963,7 +5973,7 @@
         <v>0.81643</v>
       </c>
       <c r="E117" s="23" t="n">
-        <v>835.9147899999999</v>
+        <v>835.91479</v>
       </c>
       <c r="F117" s="33" t="n">
         <v>523.9691</v>
@@ -5978,23 +5988,28 @@
         <v>1819.71472</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>19383.74627</v>
+        <v>19719.85956</v>
       </c>
       <c r="K117" s="23" t="n">
         <v>19485.7476</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>33424.80308</v>
+        <v>33424.80308000001</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>18652.17897</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>31807.318</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>47.7759</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>47.626</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6163,7 +6198,7 @@
         <v>0.81643</v>
       </c>
       <c r="E122" s="22" t="n">
-        <v>835.9147899999999</v>
+        <v>835.91479</v>
       </c>
       <c r="F122" s="21" t="n">
         <v>523.9691</v>
@@ -6178,10 +6213,10 @@
         <v>1356.8608</v>
       </c>
       <c r="J122" s="21" t="n">
-        <v>851.7021699999999</v>
+        <v>1187.81546</v>
       </c>
       <c r="K122" s="22" t="n">
-        <v>899.8806699999999</v>
+        <v>899.88067</v>
       </c>
       <c r="L122" s="22" t="n">
         <v>1005.69329</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>1107.04716</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>1047.58</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>340.99921</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,49 +6404,57 @@
       <c r="M126" s="22" t="n">
         <v>17156.3567</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>30690.303</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>88965.94901000001</v>
+        <v>88965.94901</v>
       </c>
       <c r="D127" s="23" t="n">
         <v>137372.23762</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>305472.68854</v>
+        <v>305472.6885399999</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>742169.6727400002</v>
+        <v>742169.6727400001</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>893472.8412799999</v>
+        <v>893476.1790799999</v>
       </c>
       <c r="H127" s="33" t="n">
         <v>1222395.00934</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1655836.02323</v>
+        <v>1658726.89804</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1631797.37997</v>
+        <v>1656200.64381</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>2238760.86243</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2152362.96651</v>
+        <v>2192949.01253</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2485250.99715</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2542539.24181</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>3404292.095</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>802-Security systems service activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>54078.00503999999</v>
+        <v>54078.00504</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>105228.35641</v>
@@ -6501,32 +6578,37 @@
         <v>266262.80964</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>291529.79502</v>
+        <v>291530.89458</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>558734.53987</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>888450.8099300001</v>
+        <v>891184.3259100001</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>794164.73333</v>
+        <v>816237.6353900001</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1211997.04497</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1031296.24274</v>
+        <v>1074335.85616</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1221534.79113</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1274661.24844</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1564232.828</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>11551.962</v>
@@ -6550,23 +6632,28 @@
         <v>39806.0207</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>51016.09221</v>
+        <v>51060.79199</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>77847.6271</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>76596.82770000001</v>
+        <v>76622.16836000001</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>96267.30399</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>96967.50387</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>92185.72199999999</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>10937.31205</v>
@@ -6575,7 +6662,7 @@
         <v>31510.75857</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>76525.48111000001</v>
+        <v>76525.48110999999</v>
       </c>
       <c r="F134" s="21" t="n">
         <v>101279.23496</v>
@@ -6590,23 +6677,28 @@
         <v>37466.36958</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>47851.14071</v>
+        <v>47851.17212</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>71087.23076999999</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>71914.40482000001</v>
+        <v>71916.08807000001</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>90933.35075</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>91591.32919</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>85006.878</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>547.9667099999999</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>5.55554</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>724.172</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>30.5375</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>154.443</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>19.5396</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2438.75994</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>2525.366</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>77.68114</v>
@@ -6910,23 +7037,28 @@
         <v>1302.31051</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>2318.75129</v>
+        <v>2363.41966</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>1700.14028</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>2255.0151</v>
+        <v>2278.67251</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>2889.63776</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>2931.8592</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>4083.749</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>22944.51998</v>
@@ -6947,26 +7079,31 @@
         <v>286820.22236</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>542052.1338200001</v>
+        <v>543883.52322</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>419221.36334</v>
+        <v>426150.02653</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>669884.03588</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>550548.93743</v>
+        <v>582342.1392199999</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>616933.1407699999</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>648364.4699200001</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>827323.429</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>17130.55151</v>
@@ -6975,10 +7112,10 @@
         <v>28094.52072</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>53308.61659000001</v>
+        <v>53308.61659</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>62462.16678999999</v>
+        <v>62462.16679</v>
       </c>
       <c r="G144" s="25" t="n">
         <v>108390.71158</v>
@@ -6987,29 +7124,34 @@
         <v>254340.71093</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>365474.49876</v>
+        <v>367297.09984</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>335311.24578</v>
+        <v>337720.78153</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>553015.7556500001</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>436588.3113</v>
+        <v>468371.91309</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>500055.07341</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>530649.7557699999</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>688663.138</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>4933.866720000001</v>
+        <v>4933.86672</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>1893.29427</v>
@@ -7030,7 +7172,7 @@
         <v>158398.99012</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>51757.41247</v>
+        <v>56130.7525</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>99690.78856</v>
@@ -7039,14 +7181,19 @@
         <v>90792.97211</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>84846.53605</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>84951.53605</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>102031.71</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>1.58639</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7110,7 +7262,7 @@
         <v>630.3068900000001</v>
       </c>
       <c r="J147" s="24" t="n">
-        <v>841.18291</v>
+        <v>938.42812</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>1430.415</v>
@@ -7121,18 +7273,23 @@
       <c r="M147" s="25" t="n">
         <v>1782.14757</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>3310.228</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>880.10175</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>983.5790400000001</v>
+        <v>983.57904</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>1479.46493</v>
@@ -7144,29 +7301,34 @@
         <v>3763.91767</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>7222.484199999999</v>
+        <v>7222.4842</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>17548.3551</v>
+        <v>17557.14342</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>31311.52218</v>
+        <v>31360.06438</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>15747.07667</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>21691.73997</v>
+        <v>21701.33997</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>30250.97013</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>30982.61692</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>33318.353</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>8723.395</v>
@@ -7187,26 +7349,31 @@
         <v>160794.65837</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>189224.09288</v>
+        <v>189497.00936</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>164341.56626</v>
+        <v>164654.80568</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>205240.24935</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>189359.53595</v>
+        <v>198745.78832</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>229610.24976</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>247126.35171</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>304971.049</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>4895.88375</v>
@@ -7221,32 +7388,37 @@
         <v>49995.91991</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>61455.94171</v>
+        <v>61455.94170999999</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>102605.04685</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>132442.21781</v>
+        <v>132706.7415</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>125070.64405</v>
+        <v>125341.79271</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>166750.94237</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>165649.42248</v>
+        <v>169891.19734</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>192206.93443</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>199871.00915</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>257840.73</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>205.38244</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>73.21944000000001</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>173.919</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1331.35014</v>
@@ -7347,26 +7529,31 @@
         <v>5711.53909</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>7143.573709999999</v>
+        <v>7148.30875</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>9121.319229999999</v>
+        <v>9147.36212</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>10481.31307</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>13683.03515</v>
+        <v>13846.31022</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>21315.9521</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>21409.39598</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>19223.877</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>2496.16111</v>
@@ -7384,29 +7571,34 @@
         <v>22548.14468</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>52363.81221</v>
+        <v>52363.81221000001</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>49596.05295</v>
+        <v>49599.7107</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>25616.36381</v>
+        <v>25632.41168</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>28005.86165</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>10026.97832</v>
+        <v>15008.18076</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>15808.76135</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>25567.3447</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>27732.523</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>2687.97667</v>
@@ -7467,26 +7664,31 @@
         <v>29740.25283</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>34069.70539</v>
+        <v>34681.85669</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>45476.92168</v>
+        <v>47808.10023</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>135447.84638</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>84167.16189</v>
+        <v>84969.81199000002</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>102478.25143</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>103754.47255</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>118695.1</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>2687.97667</v>
@@ -7507,26 +7709,31 @@
         <v>29705.04104</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>34035.51696</v>
+        <v>34647.66826</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>45462.33595</v>
+        <v>47793.5145</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>135415.53116</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>84066.94934000001</v>
+        <v>84869.59944000001</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>102473.30974</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>103749.53086</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>118007.902</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>4.941689999999999</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>687.198</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>2152.28564</v>
@@ -7590,23 +7802,28 @@
         <v>39830.21629</v>
       </c>
       <c r="J159" s="33" t="n">
-        <v>52488.56954</v>
+        <v>64498.78536</v>
       </c>
       <c r="K159" s="23" t="n">
         <v>50126.69255000001</v>
       </c>
       <c r="L159" s="23" t="n">
-        <v>51560.48734000001</v>
+        <v>51560.48734</v>
       </c>
       <c r="M159" s="23" t="n">
         <v>56078.38744</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>31326.912</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>2152.28564</v>
@@ -7630,7 +7847,7 @@
         <v>39830.21629</v>
       </c>
       <c r="J160" s="21" t="n">
-        <v>52488.56954</v>
+        <v>64498.78536</v>
       </c>
       <c r="K160" s="22" t="n">
         <v>50126.69255000001</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>56078.38744</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>31326.912</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>4041.23882</v>
@@ -7701,32 +7928,37 @@
         <v>11129.43794</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>19394.61882</v>
+        <v>19395.15882</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>24225.88439</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>34562.30591</v>
+        <v>34576.18773</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>51700.29027</v>
+        <v>51835.08416</v>
       </c>
       <c r="K162" s="23" t="n">
-        <v>60819.95085</v>
+        <v>60819.95084999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>66247.35019</v>
+        <v>66845.3107</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>92986.17763999999</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>94132.50076000001</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>121614.653</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1835.51716</v>
@@ -7741,32 +7973,37 @@
         <v>6034.90068</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>10414.66678</v>
+        <v>10415.20678</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>12549.08299</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>16050.20408</v>
+        <v>16058.60621</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>25420.79316</v>
+        <v>25479.92936</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>27648.0601</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>28746.20684</v>
+        <v>29149.95416</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>38615.89226</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>39024.96329</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>47137.015</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1416.05622</v>
@@ -7787,26 +8024,31 @@
         <v>6064.21435</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>7713.123930000001</v>
+        <v>7718.603619999999</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>10778.25514</v>
+        <v>10853.91283</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>13930.92271</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>13344.56106</v>
+        <v>13420.51331</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>20533.16172</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>20710.37851</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>21076.792</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>788.84444</v>
@@ -7815,13 +8057,13 @@
         <v>520.2716799999999</v>
       </c>
       <c r="E165" s="22" t="n">
-        <v>739.5153899999999</v>
+        <v>739.51539</v>
       </c>
       <c r="F165" s="21" t="n">
         <v>1815.23683</v>
       </c>
       <c r="G165" s="22" t="n">
-        <v>4063.27698</v>
+        <v>4063.276980000001</v>
       </c>
       <c r="H165" s="21" t="n">
         <v>5458.97991</v>
@@ -7836,17 +8078,22 @@
         <v>19028.1362</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>23532.32098</v>
+        <v>23650.40203</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>33048.95651</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>33597.36268999999</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>52962.611</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.821</v>
@@ -7876,17 +8123,22 @@
         <v>212.83184</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>624.2613100000001</v>
+        <v>624.4412000000001</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>788.16715</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>799.79627</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>438.235</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>196.03462</v>
@@ -7901,32 +8153,37 @@
         <v>1462.82443</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>1347.29555</v>
+        <v>1347.85511</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>2152.49403</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>4399.89355</v>
+        <v>4403.07053</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>5244.67527</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>5138.258940000001</v>
+        <v>5138.25894</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>6250.6052</v>
+        <v>6322.569820000001</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>7323.25414</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>7712.504660000001</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>13259.138</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>800.19637</v>
@@ -7938,35 +8195,40 @@
         <v>2874.33185</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>2944.68823</v>
+        <v>2944.688229999999</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>3886.61989</v>
+        <v>3886.619889999999</v>
       </c>
       <c r="H168" s="21" t="n">
         <v>5090.79924</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>11578.23421</v>
+        <v>11583.90888</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>9659.920039999999</v>
+        <v>9668.170330000001</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>14471.01128</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>15668.85013</v>
+        <v>16208.15137</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>14825.65437</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>15155.3935</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>29905.086</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>604.16175</v>
@@ -7981,32 +8243,37 @@
         <v>1483.6388</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>2550.23568</v>
+        <v>2549.67612</v>
       </c>
       <c r="H169" s="21" t="n">
         <v>2944.86582</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>7229.61767</v>
+        <v>7232.11536</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>5138.497490000001</v>
+        <v>5146.747780000001</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>9332.752339999999</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>9434.56553</v>
+        <v>9901.90215</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>7502.40023</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>7442.88884</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>17810.802</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>1164.854</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>1779.06308</v>
@@ -8138,7 +8420,7 @@
         <v>1354.90579</v>
       </c>
       <c r="F173" s="33" t="n">
-        <v>4439.420679999999</v>
+        <v>4439.420680000001</v>
       </c>
       <c r="G173" s="23" t="n">
         <v>3844.36275</v>
@@ -8153,20 +8435,25 @@
         <v>3157.48787</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>7334.433819999999</v>
+        <v>7334.43382</v>
       </c>
       <c r="L173" s="23" t="n">
         <v>5471.38924</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>18388.92215</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>19006.26988</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>52860.005</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>198.76528</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>11953.72044</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>10221.755</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>1580.2978</v>
@@ -8239,14 +8531,19 @@
         <v>2150.60744</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>6435.201710000001</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>7052.549440000001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>42638.25</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>1.52923</v>
@@ -8270,23 +8567,28 @@
         <v>307.03316</v>
       </c>
       <c r="J176" s="33" t="n">
-        <v>1517.76689</v>
+        <v>1827.8783</v>
       </c>
       <c r="K176" s="23" t="n">
         <v>157.9501</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>1093.9478</v>
+        <v>1456.19117</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>1469.10381</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>1518.78765</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>1996.82</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>1.40725</v>
@@ -8310,23 +8612,28 @@
         <v>131.63436</v>
       </c>
       <c r="J177" s="21" t="n">
-        <v>1473.79456</v>
+        <v>1771.07436</v>
       </c>
       <c r="K177" s="22" t="n">
         <v>95.90613</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>995.23774</v>
+        <v>999.8880399999999</v>
       </c>
       <c r="M177" s="22" t="n">
         <v>1260.10622</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>1736.745</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.12196</v>
@@ -8350,23 +8657,28 @@
         <v>35.87119000000001</v>
       </c>
       <c r="J178" s="21" t="n">
-        <v>17.4258</v>
+        <v>30.25741</v>
       </c>
       <c r="K178" s="22" t="n">
         <v>20.17083</v>
       </c>
       <c r="L178" s="22" t="n">
-        <v>98.34271000000001</v>
+        <v>98.34271</v>
       </c>
       <c r="M178" s="22" t="n">
-        <v>54.39458</v>
-      </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+        <v>98.85363</v>
+      </c>
+      <c r="N178" s="22" t="n">
+        <v>115.682</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>2e-05</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>137.20811</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>144.393</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8476,17 +8798,22 @@
         <v>3</v>
       </c>
       <c r="L181" s="35" t="n">
-        <v>0</v>
+        <v>357.59307</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>17.3949</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>22.61969</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>10163.80695</v>
@@ -8495,7 +8822,7 @@
         <v>15154.62886</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>33997.43455000001</v>
+        <v>33997.43455</v>
       </c>
       <c r="F182" s="33" t="n">
         <v>88036.67349</v>
@@ -8510,23 +8837,28 @@
         <v>513824.06164</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>616204.7839199998</v>
+        <v>616204.7839200001</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>711655.8887</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>1042634.71514</v>
+        <v>1042853.71488</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>1200794.17016</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>1204371.77966</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>1671702.726</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>9346.630459999998</v>
@@ -8550,7 +8882,7 @@
         <v>490037.17201</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>583731.7090599999</v>
+        <v>583731.70906</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>657410.87066</v>
@@ -8559,14 +8891,19 @@
         <v>979945.8406</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>1135205.228</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>1135788.32359</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>1481790.932</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>9005.454609999999</v>
@@ -8578,19 +8915,19 @@
         <v>33232.70047</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>83913.41050999997</v>
+        <v>83913.41050999999</v>
       </c>
       <c r="G184" s="22" t="n">
         <v>247214.19313</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>339930.05952</v>
+        <v>339930.0595200001</v>
       </c>
       <c r="I184" s="22" t="n">
         <v>489777.74954</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>583599.3086999999</v>
+        <v>583599.3087000001</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>657336.44467</v>
@@ -8599,14 +8936,19 @@
         <v>979066.51998</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>1134309.80797</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>1134892.90356</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>1479737.702</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>379.8332</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>568.5376900000001</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>1892.341</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>38.65735</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>54.30913</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>209.302</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>381.19147</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>370.191</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>129.88201</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>4930.11606</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>109643.315</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0.98941</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1282.48654</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>1652.461</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>125.3926</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3433.98788</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>107883.132</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>3.5</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>213.64164</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>100.547</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>662.9729100000001</v>
@@ -9116,17 +9518,22 @@
         <v>36582.67384</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>37363.72233</v>
+        <v>37582.72207</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>48385.72457999999</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>49012.14342</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>61809.072</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>656.09046</v>
@@ -9156,17 +9563,22 @@
         <v>33445.9495</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>33909.84813000001</v>
+        <v>34128.84787</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>46256.03461</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>46882.45345</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>58614.931</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>209.19338</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>1031.608</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>6.88245</v>
@@ -9353,7 +9785,7 @@
         <v>2814.08389</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>2960.095470000001</v>
+        <v>2960.09547</v>
       </c>
       <c r="L203" s="22" t="n">
         <v>2742.0982</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>1920.49659</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>2162.533</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9399,14 +9836,19 @@
         <v>4643.915899999999</v>
       </c>
       <c r="M204" s="23" t="n">
-        <v>1881.73824</v>
-      </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+        <v>1934.73824</v>
+      </c>
+      <c r="N204" s="23" t="n">
+        <v>6399.02</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9439,14 +9881,19 @@
         <v>4643.915899999999</v>
       </c>
       <c r="M205" s="22" t="n">
-        <v>1881.73824</v>
-      </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+        <v>1934.73824</v>
+      </c>
+      <c r="N205" s="22" t="n">
+        <v>6399.02</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>1865.32516</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>3030.702</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>1865.32516</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>3030.702</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>24.32157</v>
@@ -9627,26 +10094,31 @@
         <v>2870.00063</v>
       </c>
       <c r="I210" s="23" t="n">
-        <v>5853.906039999999</v>
+        <v>5853.90604</v>
       </c>
       <c r="J210" s="33" t="n">
-        <v>6934.04965</v>
+        <v>6934.049649999999</v>
       </c>
       <c r="K210" s="23" t="n">
-        <v>7009.165720000001</v>
+        <v>7009.16572</v>
       </c>
       <c r="L210" s="23" t="n">
         <v>9493.471140000001</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>8494.995000000001</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>10810.09007</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>9029.219999999999</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9676,17 +10148,22 @@
         <v>6282.704189999999</v>
       </c>
       <c r="L211" s="22" t="n">
-        <v>8515.282100000002</v>
+        <v>8515.2821</v>
       </c>
       <c r="M211" s="22" t="n">
-        <v>7562.899219999999</v>
-      </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+        <v>9877.994289999999</v>
+      </c>
+      <c r="N211" s="22" t="n">
+        <v>7972.145</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>24.32157</v>
@@ -9710,7 +10187,7 @@
         <v>400.4268</v>
       </c>
       <c r="J212" s="21" t="n">
-        <v>776.66559</v>
+        <v>776.6655900000001</v>
       </c>
       <c r="K212" s="22" t="n">
         <v>726.46153</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>932.09578</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>1057.075</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>31.04312</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>31.04312</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>24724.13702</v>
@@ -9901,41 +10403,46 @@
         <v>387870.18961</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>343178.3286300001</v>
+        <v>343180.56687</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>312403.28336</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>253561.15166</v>
+        <v>253718.51049</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>221427.86272</v>
+        <v>223758.2245</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>315107.92876</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>78432.00863</v>
+        <v>75759.44149000003</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>62922.03585999995</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>63506.21370999998</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>168356.541</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>13719.58551</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>38224.70026</v>
+        <v>38224.70026000001</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>85577.32897999999</v>
+        <v>85577.32898000001</v>
       </c>
       <c r="F218" s="33" t="n">
         <v>121153.78088</v>
@@ -9947,26 +10454,31 @@
         <v>191099.95207</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>214406.85649</v>
+        <v>214576.85649</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>225685.06567</v>
+        <v>226287.56567</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>252338.59628</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>232219.205</v>
+        <v>232236.605</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>316097.2823</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>317599.26444</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>494257.42</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>15899.65314</v>
@@ -9987,26 +10499,31 @@
         <v>200105.9144</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>226377.91438</v>
+        <v>226547.91438</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>239873.11947</v>
+        <v>240475.61947</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>272859.77573</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>258270.33272</v>
+        <v>262846.33272</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>342074.48276</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>350146.48276</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>551471.125</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3249.41714</v>
@@ -10036,17 +10553,22 @@
         <v>23027.65328</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>28259.82142</v>
+        <v>32818.42142</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>28119.45455</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>34751.96928</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>59442.082</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>1102.04893</v>
@@ -10079,14 +10601,19 @@
         <v>2208.75476</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>2142.31515</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>2204.81202</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>2228.377</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>32.69942</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0.06106</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>21580.87373</v>
@@ -10153,20 +10685,25 @@
         <v>395534.16629</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>406622.69882</v>
+        <v>406622.6988199999</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>417103.07767</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>417563.46511</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>417690.71511</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>435582.602</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>395042.66871</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>395042.669</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>43.87373</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>110.92376</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>483.836</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>39.39837</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>39.398</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10359,14 +10916,19 @@
         <v>8733.46357</v>
       </c>
       <c r="M228" s="22" t="n">
-        <v>8112.754300000001</v>
-      </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+        <v>8235.004300000001</v>
+      </c>
+      <c r="N228" s="22" t="n">
+        <v>5237.564</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>21537</v>
@@ -10439,14 +11006,19 @@
         <v>13212.46872</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>14257.71997</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>14262.71997</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>34779.135</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>2988.18908</v>
@@ -10470,7 +11042,7 @@
         <v>10088.01287</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>11224.83836</v>
+        <v>11268.63302</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>17688.99765</v>
@@ -10479,14 +11051,19 @@
         <v>16748.21489</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>18889.29067</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>18916.47105</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>33087.238</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>154.02363</v>
@@ -10501,7 +11078,7 @@
         <v>276.3326</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>779.48347</v>
+        <v>779.4834700000001</v>
       </c>
       <c r="H232" s="21" t="n">
         <v>1335.41291</v>
@@ -10510,7 +11087,7 @@
         <v>2562.97487</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>3621.05303</v>
+        <v>3664.84769</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>6453.397089999999</v>
@@ -10519,14 +11096,19 @@
         <v>4090.94192</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>5994.343800000001</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>6021.524179999999</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>7695.428</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>1.26605</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>113.2045</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>129.518</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>1116.49025</v>
@@ -10593,7 +11180,7 @@
         <v>5473.370739999999</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>8093.0828</v>
+        <v>8093.082800000001</v>
       </c>
       <c r="L234" s="22" t="n">
         <v>9125.39482</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>9658.26865</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>18884.796</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>1148.07856</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>1927.637</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>1716.40915</v>
@@ -10681,15 +11278,20 @@
       <c r="M236" s="22" t="n">
         <v>1975.39516</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>4449.859</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>6808.64522</v>
+        <v>6808.645219999999</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>10025.28758</v>
@@ -10707,26 +11309,31 @@
         <v>56698.94529</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>74998.01749000001</v>
+        <v>75044.25564</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>103755.18599</v>
+        <v>105445.58374</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>147677.30286</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>180833.24984</v>
+        <v>184385.18894</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>233429.77977</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>241460.71369</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>291097.146</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-18874.65305</v>
@@ -10741,72 +11348,82 @@
         <v>-96872.06982999999</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-158267.23447</v>
+        <v>-158267.99623</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-240896.08637</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-313259.9628</v>
+        <v>-313549.10293</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-445715.02724</v>
+        <v>-445719.24595</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-578060.65714</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-580481.36248</v>
+        <v>-585821.39217</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-832762.07179</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-840492.28475</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-999632.937</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-1498.50347</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>-6051.154060000001</v>
+        <v>-6051.15406</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-38613.4381</v>
+        <v>-38613.43809999999</v>
       </c>
       <c r="F239" s="33" t="n">
         <v>-33451.24929</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-69760.30924999999</v>
+        <v>-69757.30924999999</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-50681.89919999999</v>
+        <v>-50681.8992</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-84078.39159999999</v>
+        <v>-83848.13079000002</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-69056.36635</v>
+        <v>-69058.47827000001</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>68840.99028999999</v>
+        <v>68840.99029</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-187990.37629</v>
+        <v>-188892.25284</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-90295.71020000002</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-91668.66583</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-86034.928</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>3597.65952</v>
@@ -10821,38 +11438,43 @@
         <v>15584.98155</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>18929.41361</v>
+        <v>18932.41361</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>24733.62097</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>54006.08979000001</v>
+        <v>54236.35059999999</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>70971.73827000002</v>
+        <v>70982.96326999999</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>88269.06486</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>75085.66232999999</v>
+        <v>77261.55399000001</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>74750.53747</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>75921.41129999999</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>132827.501</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>5096.16299</v>
       </c>
       <c r="D241" s="22" t="n">
-        <v>9490.810590000001</v>
+        <v>9490.810589999999</v>
       </c>
       <c r="E241" s="22" t="n">
         <v>51092.60708</v>
@@ -10864,32 +11486,37 @@
         <v>88689.72285999999</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>75415.52017000002</v>
+        <v>75415.52017</v>
       </c>
       <c r="I241" s="22" t="n">
         <v>138084.48139</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>140028.10462</v>
+        <v>140041.44154</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>19428.07457</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>263076.0386199999</v>
+        <v>266153.80683</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>165046.24767</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>167590.07713</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>218862.429</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>88965.94901</v>
+        <v>88965.94901000001</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>137372.23762</v>
@@ -10901,29 +11528,32 @@
         <v>742169.6727400001</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>893472.8412799997</v>
+        <v>893476.17908</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>1222395.00934</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1655836.02323</v>
+        <v>1658726.89804</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1631797.37997</v>
+        <v>1656200.64381</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>2238760.86243</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2152362.96651</v>
+        <v>2192949.01253</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2485250.99715</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2542539.24181</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>3404292.095</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>107</v>
@@ -10957,29 +11590,32 @@
         <v>298</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>618</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>930</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>947</v>
+        <v>1005</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>976</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>1054</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>1130</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>